--- a/CSDLGia_ASP/wwwroot/UpLoad/File/BinhOnGia/Excel/FileExcelKkGiaMatHangBinhOnGia.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/BinhOnGia/Excel/FileExcelKkGiaMatHangBinhOnGia.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\BinhOnGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\BinhOnGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3709D2C-7683-4335-874B-40E145FE596C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD584973-5EF6-46B4-81F8-ECD9C5DF9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="4755" windowWidth="21420" windowHeight="10725" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,13 +49,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,13 +83,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,40 +427,40 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -455,6 +481,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D2:E1048576" xr:uid="{575D8C19-46A7-412B-854A-BEAC80C49B0C}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>